--- a/04_1DB設計書_エンティティ一覧E-R図最終課題.xlsx
+++ b/04_1DB設計書_エンティティ一覧E-R図最終課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4382FC7-6C7C-48A4-AD8F-93788F31F8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64614D2E-80BD-46DB-9ECB-AF684E99FA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -626,6 +626,9 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,9 +646,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -990,6 +990,62 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1404257</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>124002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>125896</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D586CBA-733E-A306-91DB-D2B1E1BDCC40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1748814" y="7333185"/>
+          <a:ext cx="1193169" cy="1894"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1285,8 +1341,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="A1:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -1301,14 +1357,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -1417,10 +1473,10 @@
       <c r="D9" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -1435,10 +1491,10 @@
       <c r="D10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -1453,58 +1509,58 @@
       <c r="D11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
@@ -1726,11 +1782,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -1741,6 +1792,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1755,18 +1811,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1941,18 +1997,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/04_1DB設計書_エンティティ一覧E-R図最終課題.xlsx
+++ b/04_1DB設計書_エンティティ一覧E-R図最終課題.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64614D2E-80BD-46DB-9ECB-AF684E99FA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD927011-D954-4683-AFA7-D0940691D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>データベース設計書</t>
     <phoneticPr fontId="2"/>
@@ -62,10 +62,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>工程名</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>20xx/xx/xx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ドキュメント名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
@@ -271,6 +263,13 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中島健伸</t>
+    <rPh sb="0" eb="4">
+      <t>ナカシマケンシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -554,7 +553,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,26 +625,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -723,7 +725,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コンビ情報</a:t>
+            <a:t>商品情報</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -735,7 +737,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コンビニ</a:t>
+            <a:t>商品</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -922,7 +924,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コンビニ</a:t>
+            <a:t>商品</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1341,8 +1343,8 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.2"/>
@@ -1357,14 +1359,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
@@ -1372,75 +1374,79 @@
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="F3" s="32">
+        <v>45303</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="24"/>
       <c r="C4" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="F6" s="32">
+        <v>45303</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
@@ -1452,7 +1458,7 @@
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1462,109 +1468,109 @@
     </row>
     <row r="9" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="E9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="E10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1782,6 +1788,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -1792,11 +1803,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1811,18 +1817,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1997,18 +2003,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/04_1DB設計書_エンティティ一覧E-R図最終課題.xlsx
+++ b/04_1DB設計書_エンティティ一覧E-R図最終課題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD927011-D954-4683-AFA7-D0940691D74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00506078-257B-4F37-AA73-5786CAD41EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="2316" windowWidth="14268" windowHeight="9564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="エンティティ一覧E-R図" sheetId="11" r:id="rId1"/>
@@ -619,12 +619,18 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -642,12 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -924,7 +924,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>商品</a:t>
+            <a:t>コンビニ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1343,7 +1343,7 @@
   </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1359,20 +1359,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
@@ -1385,10 +1385,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
@@ -1396,15 +1396,15 @@
       <c r="E3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="23">
         <v>45303</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
@@ -1417,10 +1417,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
@@ -1433,10 +1433,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
@@ -1444,7 +1444,7 @@
       <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="23">
         <v>45303</v>
       </c>
     </row>
@@ -1479,10 +1479,10 @@
       <c r="D9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
@@ -1497,10 +1497,10 @@
       <c r="D10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="30"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
@@ -1515,58 +1515,58 @@
       <c r="D11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="30"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22" t="s">
@@ -1788,11 +1788,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
@@ -1803,6 +1798,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1817,18 +1817,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2003,18 +2003,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4B43B84-1E77-4C49-90BB-0FD2422C5C60}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{015ABCEC-86AC-4514-ADE2-324BCB123D68}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c5e1bdb0-3d36-4ff2-a407-21c68f2b5ae7"/>
+    <ds:schemaRef ds:uri="55e2cd83-7313-4acd-ade5-cdd81ca5c9a9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
